--- a/Outliners_weight_quarter.xlsx
+++ b/Outliners_weight_quarter.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_program_last_Price\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBF68A-2A37-4CAD-8C45-42E2C94776A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19896" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="214">
   <si>
     <t>2010-Q2</t>
   </si>
@@ -662,25 +656,13 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,14 +725,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -797,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,27 +803,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,24 +837,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1074,16 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,23 +1146,8 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1237,7 +1158,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1248,7 +1169,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1274,7 +1195,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1294,7 +1215,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1308,7 +1229,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1325,7 +1246,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1342,7 +1263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1286,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1388,7 +1309,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -1396,7 +1317,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1416,7 +1337,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1424,7 +1345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1435,7 +1356,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1446,7 +1367,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1375,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1468,7 +1389,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1479,7 +1400,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1505,7 +1426,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1522,7 +1443,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1542,7 +1463,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1556,7 +1477,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1485,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1578,7 +1499,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1586,7 +1507,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -1597,7 +1518,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1614,7 +1535,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -1625,7 +1546,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -1633,7 +1554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -1656,7 +1577,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -1673,7 +1594,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -1681,7 +1602,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1689,7 +1610,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1703,7 +1624,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -1717,7 +1638,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -1728,7 +1649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -1748,7 +1669,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -1762,7 +1683,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -1773,7 +1694,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -1799,7 +1720,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -1813,7 +1734,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1830,7 +1751,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -1841,7 +1762,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1858,7 +1779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -1878,7 +1799,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -1904,7 +1825,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -1912,7 +1833,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
@@ -1929,7 +1850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -1952,7 +1873,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -1963,7 +1884,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -1977,7 +1898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
@@ -1997,7 +1918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43">
       <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
@@ -2014,7 +1935,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -2025,7 +1946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -2039,7 +1960,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -2056,7 +1977,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2070,7 +1991,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:43">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -2078,7 +1999,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -2089,7 +2010,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2109,7 +2030,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -2123,7 +2044,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -2134,7 +2055,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43">
       <c r="A63" s="1" t="s">
         <v>103</v>
       </c>
@@ -2142,7 +2063,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43">
       <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
@@ -2153,7 +2074,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43">
       <c r="A65" s="1" t="s">
         <v>105</v>
       </c>
@@ -2170,7 +2091,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43">
       <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
@@ -2181,7 +2102,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43">
       <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
@@ -2198,7 +2119,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:43">
       <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2212,7 +2133,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -2229,7 +2150,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43">
       <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
@@ -2237,7 +2158,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43">
       <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
@@ -2251,7 +2172,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:43">
       <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
@@ -2268,7 +2189,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
@@ -2279,7 +2200,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:43">
       <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
@@ -2293,7 +2214,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -2301,7 +2222,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:43">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
@@ -2309,7 +2230,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -2320,7 +2241,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:43">
       <c r="A78" s="1" t="s">
         <v>118</v>
       </c>
@@ -2328,7 +2249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -2342,7 +2263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:43">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -2353,7 +2274,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42">
       <c r="A81" s="1" t="s">
         <v>121</v>
       </c>
@@ -2364,7 +2285,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42">
       <c r="A82" s="1" t="s">
         <v>122</v>
       </c>
@@ -2375,7 +2296,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42">
       <c r="A83" s="1" t="s">
         <v>123</v>
       </c>
@@ -2386,7 +2307,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42">
       <c r="A84" s="1" t="s">
         <v>124</v>
       </c>
@@ -2394,7 +2315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -2420,7 +2341,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -2428,7 +2349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42">
       <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
@@ -2436,7 +2357,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42">
       <c r="A88" s="1" t="s">
         <v>128</v>
       </c>
@@ -2456,7 +2377,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42">
       <c r="A89" s="1" t="s">
         <v>129</v>
       </c>
@@ -2467,7 +2388,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42">
       <c r="A90" s="1" t="s">
         <v>130</v>
       </c>
@@ -2484,7 +2405,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42">
       <c r="A91" s="1" t="s">
         <v>131</v>
       </c>
@@ -2495,7 +2416,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:42">
       <c r="A92" s="1" t="s">
         <v>132</v>
       </c>
@@ -2503,7 +2424,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -2511,7 +2432,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42">
       <c r="A94" s="1" t="s">
         <v>134</v>
       </c>
@@ -2525,7 +2446,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42">
       <c r="A95" s="1" t="s">
         <v>135</v>
       </c>
@@ -2545,7 +2466,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:42">
       <c r="A96" s="1" t="s">
         <v>136</v>
       </c>
@@ -2562,7 +2483,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:43">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -2579,7 +2500,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:43">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -2596,7 +2517,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:43">
       <c r="A99" s="1" t="s">
         <v>139</v>
       </c>
@@ -2604,7 +2525,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:43">
       <c r="A100" s="1" t="s">
         <v>140</v>
       </c>
@@ -2618,7 +2539,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:43">
       <c r="A101" s="1" t="s">
         <v>141</v>
       </c>
@@ -2626,7 +2547,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:43">
       <c r="A102" s="1" t="s">
         <v>142</v>
       </c>
@@ -2637,7 +2558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:43">
       <c r="A103" s="1" t="s">
         <v>143</v>
       </c>
@@ -2648,7 +2569,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:43">
       <c r="A104" s="1" t="s">
         <v>144</v>
       </c>
@@ -2659,7 +2580,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:43">
       <c r="A105" s="1" t="s">
         <v>145</v>
       </c>
@@ -2682,7 +2603,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:43">
       <c r="A106" s="1" t="s">
         <v>146</v>
       </c>
@@ -2696,7 +2617,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:43">
       <c r="A107" s="1" t="s">
         <v>147</v>
       </c>
@@ -2713,7 +2634,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:43">
       <c r="A108" s="1" t="s">
         <v>148</v>
       </c>
@@ -2745,7 +2666,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:43">
       <c r="A109" s="1" t="s">
         <v>149</v>
       </c>
@@ -2765,7 +2686,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:43">
       <c r="A110" s="1" t="s">
         <v>150</v>
       </c>
@@ -2794,7 +2715,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:43">
       <c r="A111" s="1" t="s">
         <v>151</v>
       </c>
@@ -2814,7 +2735,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:43">
       <c r="A112" s="1" t="s">
         <v>152</v>
       </c>
@@ -2834,7 +2755,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39">
       <c r="A113" s="1" t="s">
         <v>153</v>
       </c>
@@ -2851,7 +2772,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39">
       <c r="A114" s="1" t="s">
         <v>154</v>
       </c>
@@ -2874,7 +2795,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39">
       <c r="A115" s="1" t="s">
         <v>155</v>
       </c>
@@ -2882,7 +2803,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39">
       <c r="A116" s="1" t="s">
         <v>156</v>
       </c>
@@ -2902,7 +2823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39">
       <c r="A117" s="1" t="s">
         <v>157</v>
       </c>
@@ -2910,7 +2831,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39">
       <c r="A118" s="1" t="s">
         <v>158</v>
       </c>
@@ -2927,7 +2848,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39">
       <c r="A119" s="1" t="s">
         <v>159</v>
       </c>
@@ -2938,7 +2859,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39">
       <c r="A120" s="1" t="s">
         <v>160</v>
       </c>
@@ -2949,7 +2870,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -2969,7 +2890,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39">
       <c r="A122" s="1" t="s">
         <v>162</v>
       </c>
@@ -2977,7 +2898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39">
       <c r="A123" s="1" t="s">
         <v>163</v>
       </c>
@@ -2985,7 +2906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39">
       <c r="A124" s="1" t="s">
         <v>164</v>
       </c>
@@ -3002,7 +2923,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39">
       <c r="A125" s="1" t="s">
         <v>165</v>
       </c>
@@ -3010,7 +2931,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39">
       <c r="A126" s="1" t="s">
         <v>166</v>
       </c>
@@ -3030,7 +2951,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39">
       <c r="A127" s="1" t="s">
         <v>167</v>
       </c>
@@ -3041,7 +2962,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -3049,7 +2970,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:42">
       <c r="A129" s="1" t="s">
         <v>169</v>
       </c>
@@ -3057,7 +2978,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:42">
       <c r="A130" s="1" t="s">
         <v>170</v>
       </c>
@@ -3077,7 +2998,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:42">
       <c r="A131" s="1" t="s">
         <v>171</v>
       </c>
@@ -3085,7 +3006,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:42">
       <c r="A132" s="1" t="s">
         <v>172</v>
       </c>
@@ -3093,7 +3014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:42">
       <c r="A133" s="1" t="s">
         <v>173</v>
       </c>
@@ -3110,7 +3031,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:42">
       <c r="A134" s="1" t="s">
         <v>174</v>
       </c>
@@ -3118,7 +3039,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:42">
       <c r="A135" s="1" t="s">
         <v>175</v>
       </c>
@@ -3132,7 +3053,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:42">
       <c r="A136" s="1" t="s">
         <v>176</v>
       </c>
@@ -3155,7 +3076,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:42">
       <c r="A137" s="1" t="s">
         <v>177</v>
       </c>
@@ -3163,7 +3084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:42">
       <c r="A138" s="1" t="s">
         <v>178</v>
       </c>
@@ -3180,7 +3101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:42">
       <c r="A139" s="1" t="s">
         <v>179</v>
       </c>
@@ -3188,7 +3109,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:42">
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
@@ -3205,7 +3126,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:42">
       <c r="A141" s="1" t="s">
         <v>181</v>
       </c>
@@ -3225,7 +3146,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:42">
       <c r="A142" s="1" t="s">
         <v>182</v>
       </c>
@@ -3242,7 +3163,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:42">
       <c r="A143" s="1" t="s">
         <v>183</v>
       </c>
@@ -3262,7 +3183,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:42">
       <c r="A144" s="1" t="s">
         <v>184</v>
       </c>
@@ -3273,7 +3194,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:43">
       <c r="A145" s="1" t="s">
         <v>185</v>
       </c>
@@ -3287,7 +3208,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:43">
       <c r="A146" s="1" t="s">
         <v>186</v>
       </c>
@@ -3301,7 +3222,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:43">
       <c r="A147" s="1" t="s">
         <v>187</v>
       </c>
@@ -3312,7 +3233,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:43">
       <c r="A148" s="1" t="s">
         <v>188</v>
       </c>
@@ -3320,7 +3241,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:43">
       <c r="A149" s="1" t="s">
         <v>189</v>
       </c>
@@ -3331,7 +3252,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:43">
       <c r="A150" s="1" t="s">
         <v>190</v>
       </c>
@@ -3342,7 +3263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:43">
       <c r="A151" s="1" t="s">
         <v>191</v>
       </c>
@@ -3350,7 +3271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:43">
       <c r="A152" s="1" t="s">
         <v>192</v>
       </c>
@@ -3370,7 +3291,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:43">
       <c r="A153" s="1" t="s">
         <v>193</v>
       </c>
@@ -3384,7 +3305,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:43">
       <c r="A154" s="1" t="s">
         <v>194</v>
       </c>
@@ -3392,7 +3313,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:43">
       <c r="A155" s="1" t="s">
         <v>195</v>
       </c>
@@ -3409,7 +3330,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:43">
       <c r="A156" s="1" t="s">
         <v>196</v>
       </c>
@@ -3417,7 +3338,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:43">
       <c r="A157" s="1" t="s">
         <v>197</v>
       </c>
@@ -3446,7 +3367,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:43">
       <c r="A158" s="1" t="s">
         <v>198</v>
       </c>
@@ -3460,7 +3381,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:43">
       <c r="A159" s="1" t="s">
         <v>199</v>
       </c>
@@ -3492,7 +3413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:43">
       <c r="A160" s="1" t="s">
         <v>200</v>
       </c>
@@ -3500,7 +3421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:43">
       <c r="A161" s="1" t="s">
         <v>201</v>
       </c>
@@ -3508,7 +3429,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:43">
       <c r="A162" s="1" t="s">
         <v>202</v>
       </c>
@@ -3534,7 +3455,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:43">
       <c r="A163" s="1" t="s">
         <v>203</v>
       </c>
@@ -3548,7 +3469,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:43">
       <c r="A164" s="1" t="s">
         <v>204</v>
       </c>
@@ -3556,7 +3477,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:43">
       <c r="A165" s="1" t="s">
         <v>205</v>
       </c>
@@ -3582,7 +3503,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:43">
       <c r="A166" s="1" t="s">
         <v>206</v>
       </c>
@@ -3596,7 +3517,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:43">
       <c r="A167" s="1" t="s">
         <v>207</v>
       </c>
@@ -3616,7 +3537,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:43">
       <c r="A168" s="1" t="s">
         <v>208</v>
       </c>
@@ -3627,7 +3548,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:43">
       <c r="A169" s="1" t="s">
         <v>209</v>
       </c>
@@ -3638,7 +3559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:43">
       <c r="A170" s="1" t="s">
         <v>210</v>
       </c>
@@ -3652,7 +3573,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:43">
       <c r="A171" s="1" t="s">
         <v>211</v>
       </c>
@@ -3663,7 +3584,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:43">
       <c r="A172" s="1" t="s">
         <v>212</v>
       </c>
